--- a/biology/Zoologie/Cephalophinae/Cephalophinae.xlsx
+++ b/biology/Zoologie/Cephalophinae/Cephalophinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Céphalophinés, Cephalophini · Céphalophes, Duikers
 Les Céphalophinés (Cephalophinae) sont une sous-famille de mammifères artiodactyles de la famille des Bovidés regroupant les céphalophes, des antilopes africaines vivant principalement en forêt. Ils sont également appelés duikers.
@@ -513,7 +525,9 @@
           <t>Habitat et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les céphalophes sont de petits ongulés d'Afrique subsaharienne. Le plus petit est le céphalophe 
 bleu qui mesure de 55 à 72 cm pour un poids de 4 à 6 kg et le plus grand, le céphalophe à dos jaune,
@@ -547,7 +561,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les céphalophes (qui sont diurnes ou nocturnes selon les espèces) ont besoin d'une nourriture de qualité à cause de leur 
 taille relativement petite et consomment des feuilles, des fruits, des pousses, des bourgeons, des écorces et des graines.
@@ -581,7 +597,9 @@
           <t>Avenir</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce la plus rare, le céphalophe de Jentink, découvert en 1822 et peu présent dans les zoos, est considérée comme menacé. 
 Les céphalophes sont principalement touchés par la chasse de subsistance. Facilement éblouis la nuit par les lumières, ils sont alors assez faciles à abattre, certaines espèces étant aussi piégées dans des filets.
@@ -613,9 +631,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces actuels selon l'ITIS[2], d'après MSW[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces actuels selon l'ITIS, d'après MSW :
 genre Cephalophus Hamilton Smith, 1827
 Cephalophus adersi (Thomas, 1918) - Céphalophe d'Ader
 Cephalophus brookei (Thomas, 1903) - Céphalophe de Brooke
@@ -632,13 +652,13 @@
 Cephalophus spadix (True, 1890) - Céphalophe d'Abbott
 Cephalophus weynsi (Thomas, 1901) - Céphalophe de Weyns
 Cephalophus zebra (Gray, 1838) - Céphalophe-zèbre
-genre Philantomba (C. H. Smith, 1827[4]), Grubb et al., 1998
+genre Philantomba (C. H. Smith, 1827), Grubb et al., 1998
 Philantomba maxwellii (H. Smith, 1827) - Céphalophe de Maxwell
 Philantomba monticola (Thunberg, 1789) - Céphalophe bleu
 Philantomba walteri Colyn et al., 2010 - Céphalophe de Walter
 genre Sylvicapra Ogilby, 1837
 Sylvicapra grimmia (Linnaeus, 1758) — Céphalophe de Grimm
-Les données phylogénétiques confirment qu'on ne peut dinstinguer le genre Sylvicapra sans distinguer le genre Philantomba[5].
+Les données phylogénétiques confirment qu'on ne peut dinstinguer le genre Sylvicapra sans distinguer le genre Philantomba.
 			Cephalophus natalensis
 			Philantomba maxwellii
 			Sylvicapra grimmia
@@ -672,10 +692,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Place au sein des Bovidés
-Phylogénie des Bovidés par tribus, d'après Calamari (2021)[6] :
-Phylogénie du groupe
-Phylogénie en tant que tribu Cephalophini selon Margot (2007)[5] :
+          <t>Place au sein des Bovidés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Bovidés par tribus, d'après Calamari (2021) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cephalophinae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cephalophinae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Phylogénie du groupe</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie en tant que tribu Cephalophini selon Margot (2007) :
 </t>
         </is>
       </c>
